--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_OV_Fiets.xlsx
@@ -391,7 +391,7 @@
         <v>16.75449357091897</v>
       </c>
       <c r="C2">
-        <v>15.5140249246865</v>
+        <v>15.51402492468649</v>
       </c>
       <c r="D2">
         <v>17.41377151417888</v>
@@ -408,7 +408,7 @@
         <v>7.085912663025351</v>
       </c>
       <c r="C3">
-        <v>7.627066062642043</v>
+        <v>7.627066062642042</v>
       </c>
       <c r="D3">
         <v>9.083286243689509</v>
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7015755918774016</v>
+        <v>0.7015755918774017</v>
       </c>
       <c r="C4">
-        <v>0.6776299896266021</v>
+        <v>0.677629989626602</v>
       </c>
       <c r="D4">
         <v>0.8473386943395462</v>
       </c>
       <c r="E4">
-        <v>0.8814848017607664</v>
+        <v>0.8814848017607666</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>23.15199453195425</v>
+        <v>23.15199453195426</v>
       </c>
       <c r="C5">
         <v>21.00652967842467</v>
@@ -456,10 +456,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>37.18350636950228</v>
+        <v>37.18350636950229</v>
       </c>
       <c r="C6">
-        <v>27.78282957469069</v>
+        <v>27.78282957469068</v>
       </c>
       <c r="D6">
         <v>37.28290255094004</v>
@@ -476,7 +476,7 @@
         <v>49.80130295738977</v>
       </c>
       <c r="C7">
-        <v>36.00248282417904</v>
+        <v>36.00248282417905</v>
       </c>
       <c r="D7">
         <v>45.94148363881783</v>
@@ -493,7 +493,7 @@
         <v>170.4467129386721</v>
       </c>
       <c r="C8">
-        <v>150.4389460867481</v>
+        <v>150.4389460867482</v>
       </c>
       <c r="D8">
         <v>147.9471507012778</v>
@@ -510,10 +510,10 @@
         <v>91.80122430019378</v>
       </c>
       <c r="C9">
-        <v>88.47247282213257</v>
+        <v>88.47247282213254</v>
       </c>
       <c r="D9">
-        <v>75.29935288524103</v>
+        <v>75.29935288524105</v>
       </c>
       <c r="E9">
         <v>35.08698411632282</v>
@@ -527,10 +527,10 @@
         <v>63.12841219950816</v>
       </c>
       <c r="C10">
-        <v>84.22009374941882</v>
+        <v>84.22009374941884</v>
       </c>
       <c r="D10">
-        <v>71.63756770798712</v>
+        <v>71.63756770798713</v>
       </c>
       <c r="E10">
         <v>22.04483081243919</v>
@@ -544,10 +544,10 @@
         <v>56.11414417734059</v>
       </c>
       <c r="C11">
-        <v>56.57533015228135</v>
+        <v>56.57533015228136</v>
       </c>
       <c r="D11">
-        <v>49.83482970990408</v>
+        <v>49.83482970990409</v>
       </c>
       <c r="E11">
         <v>23.67778124299024</v>
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>20.87222617881595</v>
+        <v>20.87222617881596</v>
       </c>
       <c r="C12">
         <v>14.328316187826</v>
@@ -567,7 +567,7 @@
         <v>20.42091272122219</v>
       </c>
       <c r="E12">
-        <v>39.93632125258477</v>
+        <v>39.93632125258478</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -598,7 +598,7 @@
         <v>33.21564207177845</v>
       </c>
       <c r="D14">
-        <v>53.91120958402658</v>
+        <v>53.91120958402657</v>
       </c>
       <c r="E14">
         <v>73.7953762276023</v>
@@ -615,10 +615,10 @@
         <v>72.00496564835808</v>
       </c>
       <c r="D15">
-        <v>87.9896212065494</v>
+        <v>87.98962120654942</v>
       </c>
       <c r="E15">
-        <v>97.97702583306307</v>
+        <v>97.97702583306305</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -643,13 +643,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>50.49732140036118</v>
+        <v>50.49732140036119</v>
       </c>
       <c r="C17">
-        <v>50.149106657391</v>
+        <v>50.14910665739099</v>
       </c>
       <c r="D17">
-        <v>58.81222863711992</v>
+        <v>58.81222863711991</v>
       </c>
       <c r="E17">
         <v>54.69539649810524</v>
@@ -669,7 +669,7 @@
         <v>66.30798957893343</v>
       </c>
       <c r="E18">
-        <v>88.24040167220609</v>
+        <v>88.24040167220608</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -703,7 +703,7 @@
         <v>90.8787582030032</v>
       </c>
       <c r="E20">
-        <v>96.15299842506026</v>
+        <v>96.15299842506023</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>9.900382564633937</v>
+        <v>9.900382564633935</v>
       </c>
       <c r="C23">
         <v>14.10365902244227</v>
@@ -754,7 +754,7 @@
         <v>16.58454429921798</v>
       </c>
       <c r="E23">
-        <v>12.13064354439834</v>
+        <v>12.13064354439833</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -779,10 +779,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>87.07786761992075</v>
+        <v>87.07786761992074</v>
       </c>
       <c r="C25">
-        <v>83.26470834421293</v>
+        <v>83.26470834421295</v>
       </c>
       <c r="D25">
         <v>102.5557275639821</v>
@@ -796,13 +796,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.6132244198585969</v>
+        <v>0.6132244198585968</v>
       </c>
       <c r="C26">
-        <v>0.570306221535705</v>
+        <v>0.5703062215357051</v>
       </c>
       <c r="D26">
-        <v>0.7024364901642608</v>
+        <v>0.702436490164261</v>
       </c>
       <c r="E26">
         <v>0.7573290688602764</v>
@@ -816,10 +816,10 @@
         <v>59.79601983554853</v>
       </c>
       <c r="C27">
-        <v>61.48079519595411</v>
+        <v>61.4807951959541</v>
       </c>
       <c r="D27">
-        <v>77.00375200207516</v>
+        <v>77.00375200207513</v>
       </c>
       <c r="E27">
         <v>77.93312332779061</v>
@@ -833,10 +833,10 @@
         <v>40.63062886261631</v>
       </c>
       <c r="C28">
-        <v>42.67490490072109</v>
+        <v>42.67490490072108</v>
       </c>
       <c r="D28">
-        <v>50.75247291045864</v>
+        <v>50.75247291045861</v>
       </c>
       <c r="E28">
         <v>42.99758528429827</v>
@@ -850,10 +850,10 @@
         <v>24.53170044535324</v>
       </c>
       <c r="C29">
-        <v>26.76222849706238</v>
+        <v>26.76222849706237</v>
       </c>
       <c r="D29">
-        <v>21.87606590968045</v>
+        <v>21.87606590968044</v>
       </c>
       <c r="E29">
         <v>7.166264214049711</v>
@@ -941,7 +941,7 @@
         <v>15.54681000191009</v>
       </c>
       <c r="E34">
-        <v>52.03315720143349</v>
+        <v>52.03315720143348</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -952,13 +952,13 @@
         <v>64.09971777752185</v>
       </c>
       <c r="C35">
-        <v>67.52997012228406</v>
+        <v>67.52997012228404</v>
       </c>
       <c r="D35">
         <v>80.09354731415134</v>
       </c>
       <c r="E35">
-        <v>99.52506699400453</v>
+        <v>99.5250669940045</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -966,13 +966,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>302.6282529713976</v>
+        <v>302.6282529713977</v>
       </c>
       <c r="C36">
-        <v>371.6496356334925</v>
+        <v>371.6496356334924</v>
       </c>
       <c r="D36">
-        <v>472.5092256068746</v>
+        <v>472.5092256068745</v>
       </c>
       <c r="E36">
         <v>489.7111703279975</v>
@@ -983,13 +983,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>446.11018440165</v>
+        <v>446.1101844016501</v>
       </c>
       <c r="C37">
-        <v>551.2887883992669</v>
+        <v>551.2887883992668</v>
       </c>
       <c r="D37">
-        <v>484.7057279790666</v>
+        <v>484.7057279790665</v>
       </c>
       <c r="E37">
         <v>255.7244151069849</v>
@@ -1006,7 +1006,7 @@
         <v>465.9890904807556</v>
       </c>
       <c r="D38">
-        <v>467.8463983102295</v>
+        <v>467.8463983102294</v>
       </c>
       <c r="E38">
         <v>409.8147677996554</v>
@@ -1020,7 +1020,7 @@
         <v>20.97056604323376</v>
       </c>
       <c r="C39">
-        <v>35.49770147472269</v>
+        <v>35.49770147472268</v>
       </c>
       <c r="D39">
         <v>25.64751708211061</v>
@@ -1034,13 +1034,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3.157693682333708</v>
+        <v>3.157693682333709</v>
       </c>
       <c r="C40">
         <v>3.309457594272132</v>
       </c>
       <c r="D40">
-        <v>3.384198792388943</v>
+        <v>3.384198792388942</v>
       </c>
       <c r="E40">
         <v>3.078288858244791</v>
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>363.4733292815701</v>
+        <v>363.4733292815702</v>
       </c>
       <c r="C42">
         <v>302.7811689776622</v>
@@ -1085,7 +1085,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>420.9058646909239</v>
+        <v>420.905864690924</v>
       </c>
       <c r="C43">
         <v>335.7323107771028</v>
@@ -1105,10 +1105,10 @@
         <v>160.6687721542509</v>
       </c>
       <c r="C44">
-        <v>153.4013324125749</v>
+        <v>153.4013324125748</v>
       </c>
       <c r="D44">
-        <v>172.4533710357899</v>
+        <v>172.4533710357898</v>
       </c>
       <c r="E44">
         <v>198.3884290866739</v>
@@ -1176,7 +1176,7 @@
         <v>40.35941161672316</v>
       </c>
       <c r="D48">
-        <v>52.2380506592444</v>
+        <v>52.23805065924439</v>
       </c>
       <c r="E48">
         <v>75.7478704971422</v>
@@ -1190,7 +1190,7 @@
         <v>568.7722699333854</v>
       </c>
       <c r="C49">
-        <v>528.7544361844707</v>
+        <v>528.7544361844708</v>
       </c>
       <c r="D49">
         <v>516.0816227588439</v>
@@ -1241,7 +1241,7 @@
         <v>82.16692081153435</v>
       </c>
       <c r="C52">
-        <v>73.20165648242039</v>
+        <v>73.20165648242038</v>
       </c>
       <c r="D52">
         <v>93.91045905392707</v>
@@ -1258,7 +1258,7 @@
         <v>365.4219620283187</v>
       </c>
       <c r="C53">
-        <v>362.0700874258473</v>
+        <v>362.0700874258474</v>
       </c>
       <c r="D53">
         <v>341.4422934499956</v>
@@ -1278,10 +1278,10 @@
         <v>395.0288928662501</v>
       </c>
       <c r="D54">
-        <v>460.2287912201973</v>
+        <v>460.2287912201974</v>
       </c>
       <c r="E54">
-        <v>418.0880835157657</v>
+        <v>418.0880835157656</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1292,13 +1292,13 @@
         <v>64.64851682807301</v>
       </c>
       <c r="C55">
-        <v>79.54611616521869</v>
+        <v>79.54611616521871</v>
       </c>
       <c r="D55">
         <v>97.77598644603208</v>
       </c>
       <c r="E55">
-        <v>91.95341680911808</v>
+        <v>91.95341680911807</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1315,7 +1315,7 @@
         <v>50.46974857609487</v>
       </c>
       <c r="E56">
-        <v>78.5714334952817</v>
+        <v>78.57143349528168</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1326,7 +1326,7 @@
         <v>307.2750389247435</v>
       </c>
       <c r="C57">
-        <v>289.4097364779566</v>
+        <v>289.4097364779565</v>
       </c>
       <c r="D57">
         <v>366.2023116756655</v>
@@ -1377,7 +1377,7 @@
         <v>203.5881487214315</v>
       </c>
       <c r="C60">
-        <v>214.3963361826951</v>
+        <v>214.396336182695</v>
       </c>
       <c r="D60">
         <v>238.6564747231154</v>
@@ -1411,7 +1411,7 @@
         <v>80.75671174173384</v>
       </c>
       <c r="C62">
-        <v>87.5316655713988</v>
+        <v>87.53166557139879</v>
       </c>
       <c r="D62">
         <v>119.5819734837489</v>
@@ -1448,7 +1448,7 @@
         <v>34.48184684459673</v>
       </c>
       <c r="D64">
-        <v>56.07525812204975</v>
+        <v>56.07525812204977</v>
       </c>
       <c r="E64">
         <v>64.78319750357619</v>
@@ -1459,7 +1459,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>9.35133011481507</v>
+        <v>9.351330114815072</v>
       </c>
       <c r="C65">
         <v>7.586006305811282</v>
@@ -1468,7 +1468,7 @@
         <v>13.19417838165877</v>
       </c>
       <c r="E65">
-        <v>25.91327900143048</v>
+        <v>25.91327900143047</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1476,7 +1476,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>350.0586795543143</v>
+        <v>350.0586795543144</v>
       </c>
       <c r="C66">
         <v>352.6793122757614</v>
@@ -1502,7 +1502,7 @@
         <v>88.89931830749131</v>
       </c>
       <c r="E67">
-        <v>190.1145150018425</v>
+        <v>190.1145150018424</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1553,7 +1553,7 @@
         <v>131.281551454086</v>
       </c>
       <c r="E70">
-        <v>140.1854504559041</v>
+        <v>140.185450455904</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1561,7 +1561,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>14.06756261357462</v>
+        <v>14.06756261357461</v>
       </c>
       <c r="C71">
         <v>15.29600895785528</v>
@@ -1578,13 +1578,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>26.93885288871968</v>
+        <v>26.93885288871967</v>
       </c>
       <c r="C72">
         <v>24.55735587143853</v>
       </c>
       <c r="D72">
-        <v>22.39439939692355</v>
+        <v>22.39439939692354</v>
       </c>
       <c r="E72">
         <v>20.39859085812835</v>
@@ -1638,7 +1638,7 @@
         <v>45.68046572087413</v>
       </c>
       <c r="E75">
-        <v>61.16060910036891</v>
+        <v>61.1606091003689</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1663,7 +1663,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>224.3324071190804</v>
+        <v>224.3324071190805</v>
       </c>
       <c r="C77">
         <v>232.0456942822474</v>
@@ -1700,7 +1700,7 @@
         <v>5.444961337841758</v>
       </c>
       <c r="C79">
-        <v>5.371428108385357</v>
+        <v>5.371428108385356</v>
       </c>
       <c r="D79">
         <v>6.247403196711869</v>
@@ -1714,7 +1714,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>32.66976802705054</v>
+        <v>32.66976802705055</v>
       </c>
       <c r="C80">
         <v>23.63428367689556</v>
@@ -1748,7 +1748,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>22.81745424029071</v>
+        <v>22.8174542402907</v>
       </c>
       <c r="C82">
         <v>19.62391187829084</v>
@@ -1819,13 +1819,13 @@
         <v>97.27750441158099</v>
       </c>
       <c r="C86">
-        <v>96.83146090256349</v>
+        <v>96.83146090256346</v>
       </c>
       <c r="D86">
-        <v>97.25163248153012</v>
+        <v>97.25163248153009</v>
       </c>
       <c r="E86">
-        <v>104.9296754051625</v>
+        <v>104.9296754051624</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1884,13 +1884,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>750.368965961636</v>
+        <v>750.3689659616365</v>
       </c>
       <c r="C90">
-        <v>676.7447371908639</v>
+        <v>676.7447371908636</v>
       </c>
       <c r="D90">
-        <v>684.2810446193354</v>
+        <v>684.2810446193351</v>
       </c>
       <c r="E90">
         <v>784.991007392847</v>
@@ -1904,7 +1904,7 @@
         <v>445.510840051388</v>
       </c>
       <c r="C91">
-        <v>419.5502989080965</v>
+        <v>419.5502989080963</v>
       </c>
       <c r="D91">
         <v>479.478905376191</v>
@@ -1918,7 +1918,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>357.1856600593541</v>
+        <v>357.1856600593542</v>
       </c>
       <c r="C92">
         <v>326.943642231808</v>
@@ -1938,13 +1938,13 @@
         <v>29.40829835210639</v>
       </c>
       <c r="C93">
-        <v>35.24566843937673</v>
+        <v>35.24566843937672</v>
       </c>
       <c r="D93">
         <v>38.05083659384984</v>
       </c>
       <c r="E93">
-        <v>37.01256015541308</v>
+        <v>37.01256015541307</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1958,7 +1958,7 @@
         <v>165.0753645842562</v>
       </c>
       <c r="D94">
-        <v>92.00092280911426</v>
+        <v>92.00092280911427</v>
       </c>
       <c r="E94">
         <v>26.97146837705733</v>
@@ -1969,16 +1969,16 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>390.8488418587283</v>
+        <v>390.8488418587284</v>
       </c>
       <c r="C95">
-        <v>362.6341126414415</v>
+        <v>362.6341126414414</v>
       </c>
       <c r="D95">
-        <v>415.3526179390068</v>
+        <v>415.3526179390067</v>
       </c>
       <c r="E95">
-        <v>608.3209510557755</v>
+        <v>608.3209510557754</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1986,10 +1986,10 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>340.1255977861096</v>
+        <v>340.1255977861097</v>
       </c>
       <c r="C96">
-        <v>313.8458138150476</v>
+        <v>313.8458138150474</v>
       </c>
       <c r="D96">
         <v>299.3440188188393</v>
@@ -2003,10 +2003,10 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>139.6894171725053</v>
+        <v>139.6894171725054</v>
       </c>
       <c r="C97">
-        <v>93.98844917167131</v>
+        <v>93.98844917167128</v>
       </c>
       <c r="D97">
         <v>118.5011768208466</v>
@@ -2029,7 +2029,7 @@
         <v>384.5934233015539</v>
       </c>
       <c r="E98">
-        <v>553.4675263771434</v>
+        <v>553.4675263771433</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2071,10 +2071,10 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>93.27436981874301</v>
+        <v>93.27436981874303</v>
       </c>
       <c r="C101">
-        <v>95.69588458226691</v>
+        <v>95.6958845822669</v>
       </c>
       <c r="D101">
         <v>107.5939342203997</v>
@@ -2088,7 +2088,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>38.70871589198774</v>
+        <v>38.70871589198775</v>
       </c>
       <c r="C102">
         <v>17.54636800536979</v>
@@ -2097,7 +2097,7 @@
         <v>21.73632943462291</v>
       </c>
       <c r="E102">
-        <v>80.13316033582019</v>
+        <v>80.13316033582018</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2131,7 +2131,7 @@
         <v>467.138927373507</v>
       </c>
       <c r="E104">
-        <v>653.873293004144</v>
+        <v>653.8732930041439</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2159,7 +2159,7 @@
         <v>83.83869872586772</v>
       </c>
       <c r="C106">
-        <v>41.33781332672333</v>
+        <v>41.33781332672331</v>
       </c>
       <c r="D106">
         <v>55.61237660410365</v>
@@ -2199,7 +2199,7 @@
         <v>1.325617479375824</v>
       </c>
       <c r="E108">
-        <v>2.258413138691697</v>
+        <v>2.258413138691696</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2244,7 +2244,7 @@
         <v>519.7644199764183</v>
       </c>
       <c r="C111">
-        <v>580.7755674390997</v>
+        <v>580.7755674390996</v>
       </c>
       <c r="D111">
         <v>505.5119645763814</v>
@@ -2264,7 +2264,7 @@
         <v>273.2053444033991</v>
       </c>
       <c r="D112">
-        <v>281.5308992602043</v>
+        <v>281.5308992602041</v>
       </c>
       <c r="E112">
         <v>278.5075461368837</v>
@@ -2278,7 +2278,7 @@
         <v>332.3314219960517</v>
       </c>
       <c r="C113">
-        <v>345.9673621906755</v>
+        <v>345.9673621906753</v>
       </c>
       <c r="D113">
         <v>220.7911676809318</v>
@@ -2301,7 +2301,7 @@
         <v>257.2706321466787</v>
       </c>
       <c r="E114">
-        <v>461.5621190162135</v>
+        <v>461.5621190162134</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2329,10 +2329,10 @@
         <v>496.558153746125</v>
       </c>
       <c r="C116">
-        <v>486.3883025363545</v>
+        <v>486.3883025363543</v>
       </c>
       <c r="D116">
-        <v>483.4987182946986</v>
+        <v>483.4987182946984</v>
       </c>
       <c r="E116">
         <v>469.5656238621862</v>
@@ -2343,10 +2343,10 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>63.32553221212963</v>
+        <v>63.32553221212965</v>
       </c>
       <c r="C117">
-        <v>54.89873169205989</v>
+        <v>54.89873169205987</v>
       </c>
       <c r="D117">
         <v>67.62462705354238</v>
@@ -2411,13 +2411,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>637.3951452778764</v>
+        <v>637.3951452778765</v>
       </c>
       <c r="C121">
-        <v>645.882166300262</v>
+        <v>645.8821663002618</v>
       </c>
       <c r="D121">
-        <v>558.1822057235449</v>
+        <v>558.1822057235447</v>
       </c>
       <c r="E121">
         <v>402.8526231908321</v>
@@ -2428,7 +2428,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>638.2578246510739</v>
+        <v>638.257824651074</v>
       </c>
       <c r="C122">
         <v>683.3200785443279</v>
@@ -2451,7 +2451,7 @@
         <v>613.4717770961191</v>
       </c>
       <c r="D123">
-        <v>429.7533795624909</v>
+        <v>429.753379562491</v>
       </c>
       <c r="E123">
         <v>177.0209400291452</v>
@@ -2468,7 +2468,7 @@
         <v>174.6504993084544</v>
       </c>
       <c r="D124">
-        <v>239.1402124422214</v>
+        <v>239.1402124422213</v>
       </c>
       <c r="E124">
         <v>483.9825450191166</v>
@@ -2516,7 +2516,7 @@
         <v>726.5893294291668</v>
       </c>
       <c r="C127">
-        <v>731.2201287160724</v>
+        <v>731.2201287160721</v>
       </c>
       <c r="D127">
         <v>606.6721654067909</v>
@@ -2539,7 +2539,7 @@
         <v>26.67392997760676</v>
       </c>
       <c r="E128">
-        <v>165.7489684383065</v>
+        <v>165.7489684383064</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2547,7 +2547,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>53.0844323029235</v>
+        <v>53.08443230292351</v>
       </c>
       <c r="C129">
         <v>42.17015640449407</v>
@@ -2556,7 +2556,7 @@
         <v>57.15842138058592</v>
       </c>
       <c r="E129">
-        <v>150.2790647173979</v>
+        <v>150.2790647173978</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2567,7 +2567,7 @@
         <v>315.4659597997814</v>
       </c>
       <c r="C130">
-        <v>298.8705384794325</v>
+        <v>298.8705384794324</v>
       </c>
       <c r="D130">
         <v>230.7868785109124</v>
@@ -2601,7 +2601,7 @@
         <v>944.6078029968145</v>
       </c>
       <c r="C132">
-        <v>827.3147209114413</v>
+        <v>827.3147209114411</v>
       </c>
       <c r="D132">
         <v>575.1353266614989</v>
@@ -2615,7 +2615,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>329.6223282648415</v>
+        <v>329.6223282648416</v>
       </c>
       <c r="C133">
         <v>287.3532329827287</v>
@@ -2649,7 +2649,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>933.3304408933221</v>
+        <v>933.3304408933226</v>
       </c>
       <c r="C135">
         <v>884.2530386167339</v>
@@ -2672,7 +2672,7 @@
         <v>675.7417679668682</v>
       </c>
       <c r="D136">
-        <v>584.0256366035003</v>
+        <v>584.0256366035002</v>
       </c>
       <c r="E136">
         <v>439.8633802139836</v>
@@ -2686,10 +2686,10 @@
         <v>358.2879808883234</v>
       </c>
       <c r="C137">
-        <v>320.7665160940746</v>
+        <v>320.7665160940745</v>
       </c>
       <c r="D137">
-        <v>293.1351163617817</v>
+        <v>293.1351163617816</v>
       </c>
       <c r="E137">
         <v>263.1711013499807</v>
@@ -2700,10 +2700,10 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>570.8502692440869</v>
+        <v>570.850269244087</v>
       </c>
       <c r="C138">
-        <v>635.2434926568926</v>
+        <v>635.2434926568925</v>
       </c>
       <c r="D138">
         <v>491.9048185523048</v>
@@ -2720,7 +2720,7 @@
         <v>489.9280294508854</v>
       </c>
       <c r="C139">
-        <v>459.8823450336949</v>
+        <v>459.8823450336948</v>
       </c>
       <c r="D139">
         <v>363.3383982204233</v>
@@ -2740,7 +2740,7 @@
         <v>126.1369318880146</v>
       </c>
       <c r="D140">
-        <v>94.05168374846018</v>
+        <v>94.05168374846016</v>
       </c>
       <c r="E140">
         <v>63.98293406028664</v>
@@ -2754,7 +2754,7 @@
         <v>906.0312873406784</v>
       </c>
       <c r="C141">
-        <v>1016.468921499709</v>
+        <v>1016.468921499708</v>
       </c>
       <c r="D141">
         <v>862.158911031513</v>
@@ -2768,7 +2768,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>287.4334135228152</v>
+        <v>287.4334135228153</v>
       </c>
       <c r="C142">
         <v>267.1540358491983</v>
@@ -2839,7 +2839,7 @@
         <v>64.0287999463729</v>
       </c>
       <c r="C146">
-        <v>72.12841418050161</v>
+        <v>72.12841418050159</v>
       </c>
       <c r="D146">
         <v>62.8556498388758</v>
@@ -2879,7 +2879,7 @@
         <v>709.0774896126195</v>
       </c>
       <c r="E148">
-        <v>453.7994474756065</v>
+        <v>453.7994474756064</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2887,10 +2887,10 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>627.7911316000038</v>
+        <v>627.791131600004</v>
       </c>
       <c r="C149">
-        <v>650.6137982965284</v>
+        <v>650.6137982965282</v>
       </c>
       <c r="D149">
         <v>444.6313400556131</v>
@@ -2904,13 +2904,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>382.447470974715</v>
+        <v>382.4474709747151</v>
       </c>
       <c r="C150">
         <v>334.6294196366759</v>
       </c>
       <c r="D150">
-        <v>276.4694870858621</v>
+        <v>276.469487085862</v>
       </c>
       <c r="E150">
         <v>202.7144394435386</v>
@@ -2938,10 +2938,10 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>621.6059972985259</v>
+        <v>621.6059972985261</v>
       </c>
       <c r="C152">
-        <v>584.8654959045716</v>
+        <v>584.8654959045714</v>
       </c>
       <c r="D152">
         <v>428.4802016347895</v>
@@ -2958,7 +2958,7 @@
         <v>15.92792766339745</v>
       </c>
       <c r="C153">
-        <v>17.76249945880123</v>
+        <v>17.76249945880122</v>
       </c>
       <c r="D153">
         <v>19.68199453189052</v>
@@ -2975,7 +2975,7 @@
         <v>461.9099022385259</v>
       </c>
       <c r="C154">
-        <v>431.0366535335765</v>
+        <v>431.0366535335763</v>
       </c>
       <c r="D154">
         <v>510.5740934449248</v>
@@ -3009,13 +3009,13 @@
         <v>497.978231952102</v>
       </c>
       <c r="C156">
-        <v>583.4897170624934</v>
+        <v>583.4897170624931</v>
       </c>
       <c r="D156">
         <v>691.4902442759014</v>
       </c>
       <c r="E156">
-        <v>764.9512544591204</v>
+        <v>764.9512544591202</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3023,10 +3023,10 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>540.8175322029876</v>
+        <v>540.8175322029878</v>
       </c>
       <c r="C157">
-        <v>591.0562968858551</v>
+        <v>591.056296885855</v>
       </c>
       <c r="D157">
         <v>626.9456141136204</v>
@@ -3040,13 +3040,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>807.3480001483034</v>
+        <v>807.3480001483035</v>
       </c>
       <c r="C158">
-        <v>779.6802004637137</v>
+        <v>779.6802004637136</v>
       </c>
       <c r="D158">
-        <v>683.6435911385452</v>
+        <v>683.643591138545</v>
       </c>
       <c r="E158">
         <v>499.8087950659464</v>
@@ -3060,7 +3060,7 @@
         <v>733.4624886459648</v>
       </c>
       <c r="C159">
-        <v>751.2117666620547</v>
+        <v>751.2117666620546</v>
       </c>
       <c r="D159">
         <v>619.0103250514313</v>
@@ -3077,7 +3077,7 @@
         <v>226.9937476232885</v>
       </c>
       <c r="C160">
-        <v>174.6762476468797</v>
+        <v>174.6762476468796</v>
       </c>
       <c r="D160">
         <v>225.757316934876</v>
@@ -3097,10 +3097,10 @@
         <v>750.0464663409288</v>
       </c>
       <c r="D161">
-        <v>984.4748275380722</v>
+        <v>984.474827538072</v>
       </c>
       <c r="E161">
-        <v>1794.046181417151</v>
+        <v>1794.04618141715</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3128,7 +3128,7 @@
         <v>733.2779792119238</v>
       </c>
       <c r="C163">
-        <v>730.8374388065877</v>
+        <v>730.8374388065876</v>
       </c>
       <c r="D163">
         <v>524.2433325149731</v>
@@ -3151,7 +3151,7 @@
         <v>77.38568506944371</v>
       </c>
       <c r="E164">
-        <v>208.6502875655147</v>
+        <v>208.6502875655146</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3159,10 +3159,10 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>824.7668647988597</v>
+        <v>824.76686479886</v>
       </c>
       <c r="C165">
-        <v>851.0650124715838</v>
+        <v>851.0650124715837</v>
       </c>
       <c r="D165">
         <v>696.2633568435417</v>
@@ -3176,10 +3176,10 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>259.4249777664959</v>
+        <v>259.424977766496</v>
       </c>
       <c r="C166">
-        <v>317.3782954389036</v>
+        <v>317.3782954389035</v>
       </c>
       <c r="D166">
         <v>384.8789111440689</v>
@@ -3202,7 +3202,7 @@
         <v>1.08191463231967</v>
       </c>
       <c r="E167">
-        <v>0.9883473940272028</v>
+        <v>0.9883473940272027</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3213,7 +3213,7 @@
         <v>23.79307094541692</v>
       </c>
       <c r="C168">
-        <v>25.51444820868645</v>
+        <v>25.51444820868644</v>
       </c>
       <c r="D168">
         <v>22.88253908373652</v>
@@ -3227,7 +3227,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>460.8068833477864</v>
+        <v>460.8068833477865</v>
       </c>
       <c r="C169">
         <v>429.0595904692548</v>
@@ -3247,7 +3247,7 @@
         <v>536.6373271272778</v>
       </c>
       <c r="C170">
-        <v>524.0318105571868</v>
+        <v>524.0318105571866</v>
       </c>
       <c r="D170">
         <v>558.2015881279298</v>
@@ -3264,10 +3264,10 @@
         <v>94.75500715469087</v>
       </c>
       <c r="C171">
-        <v>82.73976993530621</v>
+        <v>82.7397699353062</v>
       </c>
       <c r="D171">
-        <v>93.57632703453258</v>
+        <v>93.57632703453257</v>
       </c>
       <c r="E171">
         <v>136.6201355484328</v>
@@ -3298,7 +3298,7 @@
         <v>630.798015889256</v>
       </c>
       <c r="C173">
-        <v>635.2679987210669</v>
+        <v>635.2679987210668</v>
       </c>
       <c r="D173">
         <v>596.8310025172279</v>
@@ -3318,7 +3318,7 @@
         <v>325.0205258534582</v>
       </c>
       <c r="D174">
-        <v>399.0980817565809</v>
+        <v>399.0980817565808</v>
       </c>
       <c r="E174">
         <v>500.1384075258664</v>
@@ -3332,7 +3332,7 @@
         <v>12.12190349181011</v>
       </c>
       <c r="C175">
-        <v>11.30806565069958</v>
+        <v>11.30806565069957</v>
       </c>
       <c r="D175">
         <v>10.81063406172137</v>
@@ -3346,16 +3346,16 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>678.392283633285</v>
+        <v>678.3922836332852</v>
       </c>
       <c r="C176">
-        <v>689.0877815619533</v>
+        <v>689.0877815619532</v>
       </c>
       <c r="D176">
         <v>621.4515559226468</v>
       </c>
       <c r="E176">
-        <v>484.9799082352464</v>
+        <v>484.9799082352463</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3363,16 +3363,16 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>573.6814878015464</v>
+        <v>573.6814878015465</v>
       </c>
       <c r="C177">
-        <v>632.326020313028</v>
+        <v>632.3260203130277</v>
       </c>
       <c r="D177">
-        <v>559.6375468077831</v>
+        <v>559.637546807783</v>
       </c>
       <c r="E177">
-        <v>387.3864154076198</v>
+        <v>387.3864154076197</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3417,10 +3417,10 @@
         <v>22.67738411905696</v>
       </c>
       <c r="C180">
-        <v>23.86180139831763</v>
+        <v>23.86180139831762</v>
       </c>
       <c r="D180">
-        <v>22.12466011698844</v>
+        <v>22.12466011698843</v>
       </c>
       <c r="E180">
         <v>18.9068570731871</v>
@@ -3437,7 +3437,7 @@
         <v>1.403635376371625</v>
       </c>
       <c r="D181">
-        <v>1.301450595116967</v>
+        <v>1.301450595116966</v>
       </c>
       <c r="E181">
         <v>2.224336126257306</v>
@@ -3451,13 +3451,13 @@
         <v>3.597793304019067</v>
       </c>
       <c r="C182">
-        <v>3.72952865602068</v>
+        <v>3.729528656020679</v>
       </c>
       <c r="D182">
-        <v>3.60198355004759</v>
+        <v>3.601983550047589</v>
       </c>
       <c r="E182">
-        <v>3.176567800624789</v>
+        <v>3.17656780062479</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3468,10 +3468,10 @@
         <v>5.647163714381806</v>
       </c>
       <c r="C183">
-        <v>4.593627612512861</v>
+        <v>4.59362761251286</v>
       </c>
       <c r="D183">
-        <v>5.681600850332176</v>
+        <v>5.681600850332174</v>
       </c>
       <c r="E183">
         <v>13.32744020577784</v>
@@ -3485,7 +3485,7 @@
         <v>6.941049843525807</v>
       </c>
       <c r="C184">
-        <v>6.014282491175393</v>
+        <v>6.014282491175392</v>
       </c>
       <c r="D184">
         <v>6.974820799710898</v>
@@ -3502,13 +3502,13 @@
         <v>699.8891925555189</v>
       </c>
       <c r="C185">
-        <v>573.7625496581326</v>
+        <v>573.7625496581325</v>
       </c>
       <c r="D185">
         <v>771.8801685013394</v>
       </c>
       <c r="E185">
-        <v>1823.0141933956</v>
+        <v>1823.014193395599</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3519,7 +3519,7 @@
         <v>426.1767582782894</v>
       </c>
       <c r="C186">
-        <v>364.0139275533367</v>
+        <v>364.0139275533366</v>
       </c>
       <c r="D186">
         <v>424.2104334316129</v>
@@ -3539,10 +3539,10 @@
         <v>201.3262150741596</v>
       </c>
       <c r="D187">
-        <v>299.7344176815588</v>
+        <v>299.7344176815587</v>
       </c>
       <c r="E187">
-        <v>872.4245504232871</v>
+        <v>872.4245504232869</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3570,7 +3570,7 @@
         <v>1.195760027418302</v>
       </c>
       <c r="C189">
-        <v>1.2440953335776</v>
+        <v>1.244095333577599</v>
       </c>
       <c r="D189">
         <v>1.202837455228315</v>
@@ -3593,7 +3593,7 @@
         <v>1.202837455228315</v>
       </c>
       <c r="E190">
-        <v>2.121195552010448</v>
+        <v>2.121195552010449</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3621,13 +3621,13 @@
         <v>89.87138346309337</v>
       </c>
       <c r="C192">
-        <v>93.3523790567332</v>
+        <v>93.35237905673318</v>
       </c>
       <c r="D192">
         <v>129.4056342020014</v>
       </c>
       <c r="E192">
-        <v>243.4442082616234</v>
+        <v>243.4442082616233</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3635,16 +3635,16 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>564.6918553654682</v>
+        <v>564.6918553654683</v>
       </c>
       <c r="C193">
-        <v>426.5960721305531</v>
+        <v>426.596072130553</v>
       </c>
       <c r="D193">
         <v>456.462918127081</v>
       </c>
       <c r="E193">
-        <v>688.2024358252794</v>
+        <v>688.2024358252792</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3661,7 +3661,7 @@
         <v>381.9324586384095</v>
       </c>
       <c r="E194">
-        <v>390.0571889257399</v>
+        <v>390.0571889257398</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3678,7 +3678,7 @@
         <v>178.6511493132574</v>
       </c>
       <c r="E195">
-        <v>94.44241912189743</v>
+        <v>94.44241912189742</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3686,7 +3686,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>593.6812923375093</v>
+        <v>593.6812923375094</v>
       </c>
       <c r="C196">
         <v>642.4353208870401</v>
@@ -3706,10 +3706,10 @@
         <v>488.0133002410676</v>
       </c>
       <c r="C197">
-        <v>471.7639071012559</v>
+        <v>471.7639071012558</v>
       </c>
       <c r="D197">
-        <v>384.635681579259</v>
+        <v>384.6356815792589</v>
       </c>
       <c r="E197">
         <v>254.1690023659542</v>
@@ -3740,10 +3740,10 @@
         <v>641.3730744023262</v>
       </c>
       <c r="C199">
-        <v>709.5928871736669</v>
+        <v>709.5928871736668</v>
       </c>
       <c r="D199">
-        <v>566.2760247069626</v>
+        <v>566.2760247069625</v>
       </c>
       <c r="E199">
         <v>316.0754999813875</v>
@@ -3754,7 +3754,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>601.5096007689122</v>
+        <v>601.5096007689123</v>
       </c>
       <c r="C200">
         <v>629.4391147885434</v>
@@ -3771,13 +3771,13 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>5.856070239105417</v>
+        <v>5.85607023910542</v>
       </c>
       <c r="C201">
-        <v>6.141757010013977</v>
+        <v>6.141757010013978</v>
       </c>
       <c r="D201">
-        <v>5.815180587493789</v>
+        <v>5.815180587493788</v>
       </c>
       <c r="E201">
         <v>3.04892340585552</v>
@@ -3794,7 +3794,7 @@
         <v>1.350749869616793</v>
       </c>
       <c r="D202">
-        <v>1.184308989475372</v>
+        <v>1.184308989475371</v>
       </c>
       <c r="E202">
         <v>1.034607621447641</v>
@@ -3805,13 +3805,13 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>522.1077580686239</v>
+        <v>522.107758068624</v>
       </c>
       <c r="C203">
         <v>551.6830250132007</v>
       </c>
       <c r="D203">
-        <v>586.717005976885</v>
+        <v>586.7170059768849</v>
       </c>
       <c r="E203">
         <v>619.6550241799413</v>
@@ -3822,10 +3822,10 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>589.1537769446225</v>
+        <v>589.1537769446226</v>
       </c>
       <c r="C204">
-        <v>596.8049558421717</v>
+        <v>596.8049558421716</v>
       </c>
       <c r="D204">
         <v>551.25723740458</v>
@@ -3842,13 +3842,13 @@
         <v>102.1966279840671</v>
       </c>
       <c r="C205">
-        <v>76.02816854235159</v>
+        <v>76.02816854235158</v>
       </c>
       <c r="D205">
-        <v>95.58072415030858</v>
+        <v>95.58072415030857</v>
       </c>
       <c r="E205">
-        <v>218.7622355906533</v>
+        <v>218.7622355906532</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3865,7 +3865,7 @@
         <v>268.3961596611124</v>
       </c>
       <c r="E206">
-        <v>90.2025918660233</v>
+        <v>90.20259186602328</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3896,7 +3896,7 @@
         <v>586.4805135802163</v>
       </c>
       <c r="D208">
-        <v>436.1900660844477</v>
+        <v>436.1900660844478</v>
       </c>
       <c r="E208">
         <v>202.4945846449009</v>
@@ -3913,7 +3913,7 @@
         <v>132.0221070799726</v>
       </c>
       <c r="D209">
-        <v>97.48418792541773</v>
+        <v>97.48418792541771</v>
       </c>
       <c r="E209">
         <v>35.75100153087564</v>
@@ -3930,7 +3930,7 @@
         <v>476.0583719959113</v>
       </c>
       <c r="D210">
-        <v>397.4176157658301</v>
+        <v>397.4176157658302</v>
       </c>
       <c r="E210">
         <v>222.6693218604445</v>
@@ -3981,7 +3981,7 @@
         <v>391.9620390012419</v>
       </c>
       <c r="D213">
-        <v>268.4246560519678</v>
+        <v>268.4246560519679</v>
       </c>
       <c r="E213">
         <v>94.14877367253693</v>
@@ -4080,7 +4080,7 @@
         <v>452.4487642032998</v>
       </c>
       <c r="C219">
-        <v>486.6635009289514</v>
+        <v>486.6635009289513</v>
       </c>
       <c r="D219">
         <v>447.7593030731786</v>
@@ -4094,7 +4094,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>302.2376599806299</v>
+        <v>302.23765998063</v>
       </c>
       <c r="C220">
         <v>342.268361383889</v>
@@ -4117,7 +4117,7 @@
         <v>522.1730051389593</v>
       </c>
       <c r="D221">
-        <v>559.4838493549199</v>
+        <v>559.4838493549198</v>
       </c>
       <c r="E221">
         <v>500.7601506258039</v>
@@ -4137,7 +4137,7 @@
         <v>193.6986924763248</v>
       </c>
       <c r="E222">
-        <v>140.5919415078763</v>
+        <v>140.5919415078762</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4154,7 +4154,7 @@
         <v>9.551983177328266</v>
       </c>
       <c r="E223">
-        <v>7.368336350474598</v>
+        <v>7.368336350474596</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4162,7 +4162,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>459.4705455827774</v>
+        <v>459.4705455827776</v>
       </c>
       <c r="C224">
         <v>483.2907615965032</v>
@@ -4202,7 +4202,7 @@
         <v>339.0382535035064</v>
       </c>
       <c r="D226">
-        <v>344.4864825422909</v>
+        <v>344.486482542291</v>
       </c>
       <c r="E226">
         <v>256.7132244406196</v>
@@ -4216,7 +4216,7 @@
         <v>47.1342375011527</v>
       </c>
       <c r="C227">
-        <v>17.09554409666216</v>
+        <v>17.09554409666215</v>
       </c>
       <c r="D227">
         <v>8.920679717854654</v>
@@ -4247,7 +4247,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>576.3006228444216</v>
+        <v>576.3006228444217</v>
       </c>
       <c r="C229">
         <v>635.7656585502262</v>
@@ -4335,13 +4335,13 @@
         <v>595.499762148449</v>
       </c>
       <c r="C234">
-        <v>576.142557099402</v>
+        <v>576.1425570994019</v>
       </c>
       <c r="D234">
-        <v>649.3568793412327</v>
+        <v>649.3568793412325</v>
       </c>
       <c r="E234">
-        <v>822.2955112627276</v>
+        <v>822.2955112627272</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4352,10 +4352,10 @@
         <v>29.15033800726673</v>
       </c>
       <c r="C235">
-        <v>31.56945518352888</v>
+        <v>31.56945518352887</v>
       </c>
       <c r="D235">
-        <v>37.52850616157737</v>
+        <v>37.52850616157736</v>
       </c>
       <c r="E235">
         <v>50.3027216627636</v>
@@ -4372,7 +4372,7 @@
         <v>48.77457941191977</v>
       </c>
       <c r="D236">
-        <v>52.66015990570679</v>
+        <v>52.66015990570678</v>
       </c>
       <c r="E236">
         <v>54.96027003251604</v>
@@ -4400,10 +4400,10 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>597.2833682279309</v>
+        <v>597.283368227931</v>
       </c>
       <c r="C238">
-        <v>660.2981683169322</v>
+        <v>660.2981683169323</v>
       </c>
       <c r="D238">
         <v>627.4265692412085</v>
@@ -4434,16 +4434,16 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>550.2914469514923</v>
+        <v>550.291446951492</v>
       </c>
       <c r="C240">
         <v>463.2667234607374</v>
       </c>
       <c r="D240">
-        <v>607.6792676021926</v>
+        <v>607.6792676021927</v>
       </c>
       <c r="E240">
-        <v>1019.625681833543</v>
+        <v>1019.625681833542</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4454,10 +4454,10 @@
         <v>7.12408642315707</v>
       </c>
       <c r="C241">
-        <v>6.224511453501791</v>
+        <v>6.22451145350179</v>
       </c>
       <c r="D241">
-        <v>8.761641183987475</v>
+        <v>8.761641183987473</v>
       </c>
       <c r="E241">
         <v>13.8015449088769</v>
@@ -4474,7 +4474,7 @@
         <v>121.0976357001297</v>
       </c>
       <c r="D242">
-        <v>164.0045421114608</v>
+        <v>164.0045421114607</v>
       </c>
       <c r="E242">
         <v>336.0742119878723</v>
@@ -4491,10 +4491,10 @@
         <v>333.6004234151536</v>
       </c>
       <c r="D243">
-        <v>444.2132306418881</v>
+        <v>444.2132306418879</v>
       </c>
       <c r="E243">
-        <v>656.860516108973</v>
+        <v>656.8605161089731</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4508,10 +4508,10 @@
         <v>308.07238522113</v>
       </c>
       <c r="D244">
-        <v>413.1253655719075</v>
+        <v>413.1253655719074</v>
       </c>
       <c r="E244">
-        <v>790.8754960170444</v>
+        <v>790.875496017044</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4522,10 +4522,10 @@
         <v>387.5109706561618</v>
       </c>
       <c r="C245">
-        <v>375.7281679807243</v>
+        <v>375.7281679807242</v>
       </c>
       <c r="D245">
-        <v>475.78119958819</v>
+        <v>475.7811995881899</v>
       </c>
       <c r="E245">
         <v>803.4690423325917</v>
@@ -4562,7 +4562,7 @@
         <v>1.195644924340219</v>
       </c>
       <c r="E247">
-        <v>2.124740086092346</v>
+        <v>2.124740086092345</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4596,7 +4596,7 @@
         <v>0.9810310548426754</v>
       </c>
       <c r="E249">
-        <v>0.9491647712897812</v>
+        <v>0.9491647712897811</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4604,13 +4604,13 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>653.1996800232417</v>
+        <v>653.1996800232421</v>
       </c>
       <c r="C250">
         <v>624.7809689527134</v>
       </c>
       <c r="D250">
-        <v>705.0461861342675</v>
+        <v>705.0461861342674</v>
       </c>
       <c r="E250">
         <v>874.0570359217711</v>
@@ -4627,7 +4627,7 @@
         <v>942.2877960741873</v>
       </c>
       <c r="D251">
-        <v>1021.244762637229</v>
+        <v>1021.244762637228</v>
       </c>
       <c r="E251">
         <v>1118.665993928136</v>
@@ -4692,7 +4692,7 @@
         <v>7.106058371510681</v>
       </c>
       <c r="C255">
-        <v>7.678904227739903</v>
+        <v>7.678904227739902</v>
       </c>
       <c r="D255">
         <v>8.763491966210216</v>
@@ -4723,10 +4723,10 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>53.0351045951352</v>
+        <v>53.03510459513521</v>
       </c>
       <c r="C257">
-        <v>55.05734735550216</v>
+        <v>55.05734735550214</v>
       </c>
       <c r="D257">
         <v>54.42136887640481</v>
@@ -4740,13 +4740,13 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>91.76465879995776</v>
+        <v>91.76465879995774</v>
       </c>
       <c r="C258">
-        <v>98.91726153116072</v>
+        <v>98.9172615311607</v>
       </c>
       <c r="D258">
-        <v>115.1167640774592</v>
+        <v>115.1167640774593</v>
       </c>
       <c r="E258">
         <v>132.4147312210678</v>
@@ -4757,7 +4757,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>21.02940097499032</v>
+        <v>21.02940097499031</v>
       </c>
       <c r="C259">
         <v>17.8892919790397</v>
@@ -4777,7 +4777,7 @@
         <v>324.779081988052</v>
       </c>
       <c r="C260">
-        <v>351.9268068091641</v>
+        <v>351.926806809164</v>
       </c>
       <c r="D260">
         <v>424.3974087420535</v>
@@ -4791,7 +4791,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>8.929864554398112</v>
+        <v>8.92986455439811</v>
       </c>
       <c r="C261">
         <v>10.2502189549637</v>
@@ -4800,7 +4800,7 @@
         <v>18.53066826771274</v>
       </c>
       <c r="E261">
-        <v>32.19750309968969</v>
+        <v>32.1975030996897</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4828,13 +4828,13 @@
         <v>19.26078785934733</v>
       </c>
       <c r="C263">
-        <v>18.33245367845582</v>
+        <v>18.33245367845581</v>
       </c>
       <c r="D263">
-        <v>21.72714314901529</v>
+        <v>21.72714314901528</v>
       </c>
       <c r="E263">
-        <v>27.15840728413772</v>
+        <v>27.15840728413771</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4848,7 +4848,7 @@
         <v>31.90391243815085</v>
       </c>
       <c r="D264">
-        <v>44.2818296074907</v>
+        <v>44.28182960749071</v>
       </c>
       <c r="E264">
         <v>77.61287555187923</v>
@@ -4882,7 +4882,7 @@
         <v>113.1645770435702</v>
       </c>
       <c r="D266">
-        <v>161.3850773259897</v>
+        <v>161.3850773259896</v>
       </c>
       <c r="E266">
         <v>268.8183717922906</v>
@@ -4902,7 +4902,7 @@
         <v>50.13037314055552</v>
       </c>
       <c r="E267">
-        <v>73.3947844892771</v>
+        <v>73.39478448927709</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4913,7 +4913,7 @@
         <v>47.62594429012326</v>
       </c>
       <c r="C268">
-        <v>62.58028414609419</v>
+        <v>62.58028414609418</v>
       </c>
       <c r="D268">
         <v>92.65334133856373</v>
@@ -4927,7 +4927,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>89.72387718942865</v>
+        <v>89.72387718942863</v>
       </c>
       <c r="C269">
         <v>120.3052014187845</v>
@@ -4936,7 +4936,7 @@
         <v>191.4835720996984</v>
       </c>
       <c r="E269">
-        <v>234.2368350502425</v>
+        <v>234.2368350502426</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4995,7 +4995,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>106.5863092261084</v>
+        <v>106.5863092261083</v>
       </c>
       <c r="C273">
         <v>153.9670310355712</v>
@@ -5012,7 +5012,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>46.6315102864224</v>
+        <v>46.63151028642239</v>
       </c>
       <c r="C274">
         <v>64.35658969211704</v>
@@ -5038,7 +5038,7 @@
         <v>1025.836800355207</v>
       </c>
       <c r="E275">
-        <v>905.2241520101428</v>
+        <v>905.224152010143</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5066,10 +5066,10 @@
         <v>94.31849774385529</v>
       </c>
       <c r="C277">
-        <v>71.72243739598936</v>
+        <v>71.72243739598937</v>
       </c>
       <c r="D277">
-        <v>80.96958918825872</v>
+        <v>80.96958918825871</v>
       </c>
       <c r="E277">
         <v>100.0072439802572</v>
@@ -5097,7 +5097,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>38.42283719324836</v>
+        <v>38.42283719324837</v>
       </c>
       <c r="C279">
         <v>41.72530652789945</v>
@@ -5114,16 +5114,16 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>45.57127201989922</v>
+        <v>45.57127201989923</v>
       </c>
       <c r="C280">
         <v>41.72530652789945</v>
       </c>
       <c r="D280">
-        <v>48.91160936504121</v>
+        <v>48.91160936504122</v>
       </c>
       <c r="E280">
-        <v>57.68164820987533</v>
+        <v>57.68164820987531</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,7 +5134,7 @@
         <v>233.7209896943415</v>
       </c>
       <c r="C281">
-        <v>269.2436705139876</v>
+        <v>269.2436705139875</v>
       </c>
       <c r="D281">
         <v>317.538573969284</v>
@@ -5154,10 +5154,10 @@
         <v>10.95472274903565</v>
       </c>
       <c r="D282">
-        <v>15.04950038267754</v>
+        <v>15.04950038267753</v>
       </c>
       <c r="E282">
-        <v>15.51469053449302</v>
+        <v>15.51469053449303</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5199,16 +5199,16 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>62.8871410781349</v>
+        <v>62.88714107813491</v>
       </c>
       <c r="C285">
-        <v>56.43627341303672</v>
+        <v>56.43627341303671</v>
       </c>
       <c r="D285">
         <v>69.55684210888687</v>
       </c>
       <c r="E285">
-        <v>83.19781077267518</v>
+        <v>83.1978107726752</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,7 +5216,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>9.829097886644929</v>
+        <v>9.829097886644931</v>
       </c>
       <c r="C286">
         <v>10.65326975180411</v>
@@ -5225,7 +5225,7 @@
         <v>10.98015720439701</v>
       </c>
       <c r="E286">
-        <v>9.613608034979219</v>
+        <v>9.613608034979217</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5233,10 +5233,10 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>542.3792639732701</v>
+        <v>542.3792639732702</v>
       </c>
       <c r="C287">
-        <v>579.2243156482986</v>
+        <v>579.2243156482984</v>
       </c>
       <c r="D287">
         <v>667.3258662089462</v>
@@ -5256,7 +5256,7 @@
         <v>412.1898876656201</v>
       </c>
       <c r="D288">
-        <v>565.0171455099411</v>
+        <v>565.0171455099409</v>
       </c>
       <c r="E288">
         <v>905.2799502733318</v>
@@ -5293,7 +5293,7 @@
         <v>143.4572717596946</v>
       </c>
       <c r="E290">
-        <v>312.1835265692677</v>
+        <v>312.1835265692676</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5304,10 +5304,10 @@
         <v>151.8373169915367</v>
       </c>
       <c r="C291">
-        <v>191.4618585548941</v>
+        <v>191.461858554894</v>
       </c>
       <c r="D291">
-        <v>289.3720787980265</v>
+        <v>289.3720787980266</v>
       </c>
       <c r="E291">
         <v>480.3973841939189</v>
@@ -5321,7 +5321,7 @@
         <v>125.4851842630175</v>
       </c>
       <c r="C292">
-        <v>128.9754558296148</v>
+        <v>128.9754558296147</v>
       </c>
       <c r="D292">
         <v>141.0135753029557</v>
@@ -5355,7 +5355,7 @@
         <v>28.72608137471038</v>
       </c>
       <c r="C294">
-        <v>27.07175495003613</v>
+        <v>27.07175495003612</v>
       </c>
       <c r="D294">
         <v>28.02388152967896</v>
@@ -5372,13 +5372,13 @@
         <v>379.0912944890189</v>
       </c>
       <c r="C295">
-        <v>432.3476799456456</v>
+        <v>432.3476799456455</v>
       </c>
       <c r="D295">
-        <v>435.1143122369662</v>
+        <v>435.1143122369661</v>
       </c>
       <c r="E295">
-        <v>329.594368568462</v>
+        <v>329.5943685684619</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5389,10 +5389,10 @@
         <v>365.8547792918138</v>
       </c>
       <c r="C296">
-        <v>399.5357237152435</v>
+        <v>399.5357237152434</v>
       </c>
       <c r="D296">
-        <v>404.4602431563336</v>
+        <v>404.4602431563335</v>
       </c>
       <c r="E296">
         <v>326.3463563108438</v>
@@ -5440,10 +5440,10 @@
         <v>325.9870192196673</v>
       </c>
       <c r="C299">
-        <v>318.5518632324041</v>
+        <v>318.551863232404</v>
       </c>
       <c r="D299">
-        <v>370.7393732377516</v>
+        <v>370.7393732377515</v>
       </c>
       <c r="E299">
         <v>447.6699892301111</v>
@@ -5457,10 +5457,10 @@
         <v>245.9363868278088</v>
       </c>
       <c r="C300">
-        <v>281.511356372208</v>
+        <v>281.5113563722078</v>
       </c>
       <c r="D300">
-        <v>266.2639821151584</v>
+        <v>266.2639821151583</v>
       </c>
       <c r="E300">
         <v>176.7969792563837</v>
@@ -5474,10 +5474,10 @@
         <v>354.6245359535658</v>
       </c>
       <c r="C301">
-        <v>384.7695719605145</v>
+        <v>384.7695719605144</v>
       </c>
       <c r="D301">
-        <v>360.0876416553193</v>
+        <v>360.0876416553192</v>
       </c>
       <c r="E301">
         <v>254.7593110005047</v>
@@ -5508,13 +5508,13 @@
         <v>47.37610318790235</v>
       </c>
       <c r="C303">
-        <v>48.50721246810893</v>
+        <v>48.50721246810892</v>
       </c>
       <c r="D303">
         <v>50.544295094021</v>
       </c>
       <c r="E303">
-        <v>51.12024350870463</v>
+        <v>51.12024350870461</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5528,7 +5528,7 @@
         <v>42.99159757496271</v>
       </c>
       <c r="D304">
-        <v>34.74843648106692</v>
+        <v>34.74843648106691</v>
       </c>
       <c r="E304">
         <v>12.86430244953419</v>
@@ -5545,10 +5545,10 @@
         <v>222.2584478403733</v>
       </c>
       <c r="D305">
-        <v>230.7652576563162</v>
+        <v>230.7652576563161</v>
       </c>
       <c r="E305">
-        <v>182.6730947833856</v>
+        <v>182.6730947833855</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5582,7 +5582,7 @@
         <v>228.983286554723</v>
       </c>
       <c r="E307">
-        <v>210.9745601723608</v>
+        <v>210.9745601723607</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5596,7 +5596,7 @@
         <v>5.503419199692685</v>
       </c>
       <c r="D308">
-        <v>5.799928207339719</v>
+        <v>5.799928207339718</v>
       </c>
       <c r="E308">
         <v>4.611361275512044</v>
@@ -5627,7 +5627,7 @@
         <v>193.9134762389479</v>
       </c>
       <c r="C310">
-        <v>230.1794009122798</v>
+        <v>230.1794009122797</v>
       </c>
       <c r="D310">
         <v>273.0711325524876</v>
@@ -5644,13 +5644,13 @@
         <v>47.37203914176757</v>
       </c>
       <c r="C311">
-        <v>51.70062400817365</v>
+        <v>51.70062400817364</v>
       </c>
       <c r="D311">
         <v>64.84058325982186</v>
       </c>
       <c r="E311">
-        <v>73.73641625423764</v>
+        <v>73.73641625423761</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5661,7 +5661,7 @@
         <v>13.77542905298023</v>
       </c>
       <c r="C312">
-        <v>9.745078466594286</v>
+        <v>9.745078466594283</v>
       </c>
       <c r="D312">
         <v>12.14603855987427</v>
@@ -5684,7 +5684,7 @@
         <v>22.61880811389134</v>
       </c>
       <c r="E313">
-        <v>27.1660480936665</v>
+        <v>27.16604809366649</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5698,7 +5698,7 @@
         <v>24.58932117461917</v>
       </c>
       <c r="D314">
-        <v>27.14256973666962</v>
+        <v>27.14256973666961</v>
       </c>
       <c r="E314">
         <v>20.95666567225701</v>
@@ -5709,13 +5709,13 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>787.2439650370861</v>
+        <v>787.243965037086</v>
       </c>
       <c r="C315">
         <v>758.4606216390399</v>
       </c>
       <c r="D315">
-        <v>804.6081877697892</v>
+        <v>804.6081877697891</v>
       </c>
       <c r="E315">
         <v>939.3227474002316</v>
@@ -5726,7 +5726,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>372.084596207305</v>
+        <v>372.0845962073051</v>
       </c>
       <c r="C316">
         <v>396.4993288604316</v>
@@ -5735,7 +5735,7 @@
         <v>372.3607979458274</v>
       </c>
       <c r="E316">
-        <v>310.1288069361944</v>
+        <v>310.1288069361943</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5743,13 +5743,13 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>706.8776869620926</v>
+        <v>706.8776869620928</v>
       </c>
       <c r="C317">
         <v>691.0320401585442</v>
       </c>
       <c r="D317">
-        <v>726.6518352567235</v>
+        <v>726.6518352567234</v>
       </c>
       <c r="E317">
         <v>792.6150910862556</v>
@@ -5763,7 +5763,7 @@
         <v>576.6776063177664</v>
       </c>
       <c r="C318">
-        <v>641.7232810534148</v>
+        <v>641.7232810534147</v>
       </c>
       <c r="D318">
         <v>562.8717272667592</v>
@@ -5777,7 +5777,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>508.365430507813</v>
+        <v>508.3654305078131</v>
       </c>
       <c r="C319">
         <v>517.4831089326096</v>
@@ -5803,7 +5803,7 @@
         <v>362.4197555215492</v>
       </c>
       <c r="E320">
-        <v>408.6754553171768</v>
+        <v>408.6754553171767</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5831,10 +5831,10 @@
         <v>43.80135901054228</v>
       </c>
       <c r="C322">
-        <v>43.33457089720498</v>
+        <v>43.33457089720497</v>
       </c>
       <c r="D322">
-        <v>43.73718760579977</v>
+        <v>43.73718760579976</v>
       </c>
       <c r="E322">
         <v>48.54354264489739</v>
@@ -5851,7 +5851,7 @@
         <v>527.544906532564</v>
       </c>
       <c r="D323">
-        <v>597.122224529365</v>
+        <v>597.1222245293649</v>
       </c>
       <c r="E323">
         <v>663.0162998516714</v>
@@ -5879,7 +5879,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>460.771863457492</v>
+        <v>460.7718634574921</v>
       </c>
       <c r="C325">
         <v>440.2744666043146</v>
@@ -5888,7 +5888,7 @@
         <v>538.485017537938</v>
       </c>
       <c r="E325">
-        <v>806.3221485200219</v>
+        <v>806.3221485200218</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5913,16 +5913,16 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>396.6451638066477</v>
+        <v>396.6451638066478</v>
       </c>
       <c r="C327">
-        <v>393.7020788792311</v>
+        <v>393.702078879231</v>
       </c>
       <c r="D327">
         <v>450.423513106527</v>
       </c>
       <c r="E327">
-        <v>644.0871903879851</v>
+        <v>644.0871903879849</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5947,7 +5947,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>57.382381165292</v>
+        <v>57.38238116529201</v>
       </c>
       <c r="C329">
         <v>71.19865197532303</v>
@@ -5956,7 +5956,7 @@
         <v>64.9444204268657</v>
       </c>
       <c r="E329">
-        <v>45.90750725910929</v>
+        <v>45.90750725910928</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6001,10 +6001,10 @@
         <v>895.6449299241397</v>
       </c>
       <c r="C332">
-        <v>830.2185858499049</v>
+        <v>830.2185858499047</v>
       </c>
       <c r="D332">
-        <v>945.5018907507758</v>
+        <v>945.5018907507761</v>
       </c>
       <c r="E332">
         <v>1400.002627854007</v>
@@ -6015,7 +6015,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>429.9877422959437</v>
+        <v>429.9877422959438</v>
       </c>
       <c r="C333">
         <v>425.98531505394</v>
@@ -6055,7 +6055,7 @@
         <v>528.450673283026</v>
       </c>
       <c r="D335">
-        <v>608.4506806647205</v>
+        <v>608.4506806647204</v>
       </c>
       <c r="E335">
         <v>869.0879160867297</v>
@@ -6069,7 +6069,7 @@
         <v>54.44624883407465</v>
       </c>
       <c r="C336">
-        <v>51.84662390530185</v>
+        <v>51.84662390530184</v>
       </c>
       <c r="D336">
         <v>69.51811628832877</v>
@@ -6117,16 +6117,16 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>468.3031217833353</v>
+        <v>468.3031217833352</v>
       </c>
       <c r="C339">
-        <v>491.0843049697975</v>
+        <v>491.0843049697976</v>
       </c>
       <c r="D339">
         <v>564.4167396702412</v>
       </c>
       <c r="E339">
-        <v>486.8003961565857</v>
+        <v>486.8003961565856</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6174,7 +6174,7 @@
         <v>49.74407719977944</v>
       </c>
       <c r="D342">
-        <v>69.53894156997656</v>
+        <v>69.53894156997657</v>
       </c>
       <c r="E342">
         <v>102.9892527975526</v>
@@ -6191,7 +6191,7 @@
         <v>25.72969510333419</v>
       </c>
       <c r="D343">
-        <v>33.01343690695857</v>
+        <v>33.01343690695858</v>
       </c>
       <c r="E343">
         <v>45.28605442161887</v>
@@ -6222,13 +6222,13 @@
         <v>78.28077764801375</v>
       </c>
       <c r="C345">
-        <v>90.41322652625247</v>
+        <v>90.41322652625249</v>
       </c>
       <c r="D345">
         <v>108.3887804734343</v>
       </c>
       <c r="E345">
-        <v>84.99001461994955</v>
+        <v>84.99001461994956</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6256,7 +6256,7 @@
         <v>14.33855828206192</v>
       </c>
       <c r="C347">
-        <v>13.84707072924587</v>
+        <v>13.84707072924588</v>
       </c>
       <c r="D347">
         <v>19.06335334959901</v>
@@ -6273,13 +6273,13 @@
         <v>80.35350420927863</v>
       </c>
       <c r="C348">
-        <v>87.95567427600805</v>
+        <v>87.95567427600803</v>
       </c>
       <c r="D348">
         <v>92.87011362895892</v>
       </c>
       <c r="E348">
-        <v>69.70946287070342</v>
+        <v>69.7094628707034</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6290,13 +6290,13 @@
         <v>19.76951294037807</v>
       </c>
       <c r="C349">
-        <v>17.23455779732591</v>
+        <v>17.2345577973259</v>
       </c>
       <c r="D349">
         <v>23.55401432618523</v>
       </c>
       <c r="E349">
-        <v>42.1017548030981</v>
+        <v>42.10175480309809</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6310,7 +6310,7 @@
         <v>39.81777146278743</v>
       </c>
       <c r="D350">
-        <v>49.12694416604349</v>
+        <v>49.12694416604348</v>
       </c>
       <c r="E350">
         <v>55.90560883690075</v>
@@ -6347,7 +6347,7 @@
         <v>43.10678042259694</v>
       </c>
       <c r="E352">
-        <v>52.36212152252221</v>
+        <v>52.3621215225222</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6361,7 +6361,7 @@
         <v>468.5086468087582</v>
       </c>
       <c r="D353">
-        <v>517.3692884310311</v>
+        <v>517.3692884310312</v>
       </c>
       <c r="E353">
         <v>455.2603444179406</v>
@@ -6460,10 +6460,10 @@
         <v>44.46288249383427</v>
       </c>
       <c r="C359">
-        <v>62.65768966830622</v>
+        <v>62.65768966830621</v>
       </c>
       <c r="D359">
-        <v>75.65569238410048</v>
+        <v>75.65569238410049</v>
       </c>
       <c r="E359">
         <v>52.88130085384438</v>
@@ -6514,7 +6514,7 @@
         <v>6.88456062221275</v>
       </c>
       <c r="D362">
-        <v>8.751928129807963</v>
+        <v>8.751928129807959</v>
       </c>
       <c r="E362">
         <v>9.110823862362315</v>
@@ -6528,13 +6528,13 @@
         <v>70.45505952449034</v>
       </c>
       <c r="C363">
-        <v>82.82490714052221</v>
+        <v>82.82490714052219</v>
       </c>
       <c r="D363">
         <v>109.2082380928181</v>
       </c>
       <c r="E363">
-        <v>132.7546825994998</v>
+        <v>132.7546825994997</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6548,7 +6548,7 @@
         <v>460.5344500669818</v>
       </c>
       <c r="D364">
-        <v>524.1350361016777</v>
+        <v>524.1350361016775</v>
       </c>
       <c r="E364">
         <v>561.9232546739619</v>
@@ -6616,7 +6616,7 @@
         <v>36.82680402097418</v>
       </c>
       <c r="D368">
-        <v>52.13892090144397</v>
+        <v>52.13892090144396</v>
       </c>
       <c r="E368">
         <v>87.5563801859735</v>
@@ -6644,10 +6644,10 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>83.47858748710311</v>
+        <v>83.47858748710314</v>
       </c>
       <c r="C370">
-        <v>90.29135017370592</v>
+        <v>90.29135017370591</v>
       </c>
       <c r="D370">
         <v>119.1876588550422</v>
@@ -6664,10 +6664,10 @@
         <v>12.41830227080873</v>
       </c>
       <c r="C371">
-        <v>9.863760943346024</v>
+        <v>9.863760943346023</v>
       </c>
       <c r="D371">
-        <v>12.83559403054301</v>
+        <v>12.835594030543</v>
       </c>
       <c r="E371">
         <v>20.06018005417931</v>
@@ -6678,10 +6678,10 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>56.57226590035086</v>
+        <v>56.57226590035088</v>
       </c>
       <c r="C372">
-        <v>72.84008081240141</v>
+        <v>72.8400808124014</v>
       </c>
       <c r="D372">
         <v>110.9362055496931</v>
@@ -6695,10 +6695,10 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>595.6569528430197</v>
+        <v>595.6569528430198</v>
       </c>
       <c r="C373">
-        <v>688.1204813977129</v>
+        <v>688.1204813977128</v>
       </c>
       <c r="D373">
         <v>752.0053654489643</v>
@@ -6718,7 +6718,7 @@
         <v>386.3243342253746</v>
       </c>
       <c r="D374">
-        <v>411.5253389966897</v>
+        <v>411.5253389966898</v>
       </c>
       <c r="E374">
         <v>281.6692228131846</v>
@@ -6732,7 +6732,7 @@
         <v>14.67356338755277</v>
       </c>
       <c r="C375">
-        <v>22.22948556516683</v>
+        <v>22.22948556516682</v>
       </c>
       <c r="D375">
         <v>27.46256213979374</v>
@@ -6752,7 +6752,7 @@
         <v>24.27195692591208</v>
       </c>
       <c r="D376">
-        <v>34.86995383617015</v>
+        <v>34.86995383617016</v>
       </c>
       <c r="E376">
         <v>57.76947813840584</v>
@@ -6766,7 +6766,7 @@
         <v>91.05930884462281</v>
       </c>
       <c r="C377">
-        <v>97.76204872936808</v>
+        <v>97.76204872936809</v>
       </c>
       <c r="D377">
         <v>136.1588673602835</v>
@@ -6780,7 +6780,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>616.0537215938905</v>
+        <v>616.0537215938906</v>
       </c>
       <c r="C378">
         <v>677.3396089499539</v>
@@ -6789,7 +6789,7 @@
         <v>726.5722088321894</v>
       </c>
       <c r="E378">
-        <v>642.2585863276361</v>
+        <v>642.258586327636</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6797,7 +6797,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>7.954782631771899</v>
+        <v>7.954782631771901</v>
       </c>
       <c r="C379">
         <v>9.278624780136354</v>
@@ -6823,7 +6823,7 @@
         <v>3.103373700260435</v>
       </c>
       <c r="E380">
-        <v>2.869957739296774</v>
+        <v>2.869957739296773</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6848,7 +6848,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>34.32926283211749</v>
+        <v>34.32926283211748</v>
       </c>
       <c r="C382">
         <v>39.88743349484305</v>
@@ -6871,7 +6871,7 @@
         <v>490.1333329328585</v>
       </c>
       <c r="D383">
-        <v>540.3314792954401</v>
+        <v>540.33147929544</v>
       </c>
       <c r="E383">
         <v>468.496963265165</v>
@@ -6919,7 +6919,7 @@
         <v>90.07352488219959</v>
       </c>
       <c r="C386">
-        <v>115.1199488332033</v>
+        <v>115.1199488332032</v>
       </c>
       <c r="D386">
         <v>136.9806099642076</v>
@@ -6936,7 +6936,7 @@
         <v>61.81516413484286</v>
       </c>
       <c r="C387">
-        <v>81.42630527226572</v>
+        <v>81.42630527226571</v>
       </c>
       <c r="D387">
         <v>114.598157355677</v>
@@ -6950,7 +6950,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>674.0318462904247</v>
+        <v>674.0318462904246</v>
       </c>
       <c r="C388">
         <v>626.0501659783682</v>
@@ -6967,7 +6967,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>30.05869363776371</v>
+        <v>30.0586936377637</v>
       </c>
       <c r="C389">
         <v>26.01151876207038</v>
@@ -6984,7 +6984,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>26.99148000125721</v>
+        <v>26.99148000125719</v>
       </c>
       <c r="C390">
         <v>24.48142942312506</v>
@@ -7001,7 +7001,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>54.03060892107614</v>
+        <v>54.03060892107612</v>
       </c>
       <c r="C391">
         <v>45.50101906848035</v>
@@ -7010,7 +7010,7 @@
         <v>55.32687193890153</v>
       </c>
       <c r="E391">
-        <v>77.08988314525122</v>
+        <v>77.08988314525121</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7035,13 +7035,13 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>96.41356679882585</v>
+        <v>96.41356679882584</v>
       </c>
       <c r="C393">
-        <v>82.5839242313956</v>
+        <v>82.58392423139561</v>
       </c>
       <c r="D393">
-        <v>88.30265982283693</v>
+        <v>88.30265982283694</v>
       </c>
       <c r="E393">
         <v>97.06704084929876</v>
@@ -7052,7 +7052,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>27.23547084712595</v>
+        <v>27.23547084712594</v>
       </c>
       <c r="C394">
         <v>21.84759900301471</v>
@@ -7072,13 +7072,13 @@
         <v>107.232221734982</v>
       </c>
       <c r="C395">
-        <v>90.89175167752579</v>
+        <v>90.89175167752582</v>
       </c>
       <c r="D395">
-        <v>96.50209872292439</v>
+        <v>96.50209872292437</v>
       </c>
       <c r="E395">
-        <v>107.8819414895129</v>
+        <v>107.8819414895128</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7086,7 +7086,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>33.47460890139649</v>
+        <v>33.47460890139648</v>
       </c>
       <c r="C396">
         <v>25.44969046970722</v>
@@ -7095,7 +7095,7 @@
         <v>26.78048672693595</v>
       </c>
       <c r="E396">
-        <v>32.31486726644395</v>
+        <v>32.31486726644394</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7103,13 +7103,13 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>47.92438915409407</v>
+        <v>47.92438915409406</v>
       </c>
       <c r="C397">
-        <v>44.51613136077413</v>
+        <v>44.51613136077415</v>
       </c>
       <c r="D397">
-        <v>48.79602583903397</v>
+        <v>48.79602583903396</v>
       </c>
       <c r="E397">
         <v>50.43407902285752</v>
@@ -7140,10 +7140,10 @@
         <v>555.1662571879252</v>
       </c>
       <c r="C399">
-        <v>475.2022113533987</v>
+        <v>475.2022113533986</v>
       </c>
       <c r="D399">
-        <v>609.0221940421284</v>
+        <v>609.0221940421283</v>
       </c>
       <c r="E399">
         <v>616.225807922431</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>26.61295305988183</v>
+        <v>26.61295305988184</v>
       </c>
       <c r="C400">
-        <v>24.34743884294137</v>
+        <v>24.34743884294136</v>
       </c>
       <c r="D400">
         <v>36.52464300261131</v>
       </c>
       <c r="E400">
-        <v>44.41669076818535</v>
+        <v>44.41669076818533</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7188,7 +7188,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>26.48309020092741</v>
+        <v>26.48309020092742</v>
       </c>
       <c r="C402">
         <v>16.10337512595161</v>
@@ -7242,13 +7242,13 @@
         <v>9.164128704410361</v>
       </c>
       <c r="C405">
-        <v>7.632898033795388</v>
+        <v>7.632898033795386</v>
       </c>
       <c r="D405">
         <v>9.196248908782202</v>
       </c>
       <c r="E405">
-        <v>7.50124760751301</v>
+        <v>7.501247607513009</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7256,7 +7256,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>7.331302963528288</v>
+        <v>7.331302963528289</v>
       </c>
       <c r="C406">
         <v>6.179012694024838</v>
@@ -7265,7 +7265,7 @@
         <v>7.152638040163936</v>
       </c>
       <c r="E406">
-        <v>5.625935705634758</v>
+        <v>5.625935705634757</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7273,7 +7273,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>89.91498166506582</v>
+        <v>89.91498166506585</v>
       </c>
       <c r="C407">
         <v>71.55702983452211</v>
@@ -7290,13 +7290,13 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>0.4261373538628712</v>
+        <v>0.4261373538628713</v>
       </c>
       <c r="C408">
         <v>0.3297558978549406</v>
       </c>
       <c r="D408">
-        <v>0.4679653305837687</v>
+        <v>0.4679653305837686</v>
       </c>
       <c r="E408">
         <v>0.5834583881953801</v>
@@ -7327,7 +7327,7 @@
         <v>429.154975201389</v>
       </c>
       <c r="C410">
-        <v>478.9196316394501</v>
+        <v>478.91963163945</v>
       </c>
       <c r="D410">
         <v>579.4344955703375</v>
@@ -7344,7 +7344,7 @@
         <v>12.26186003619314</v>
       </c>
       <c r="C411">
-        <v>7.94320985039143</v>
+        <v>7.943209850391428</v>
       </c>
       <c r="D411">
         <v>13.17029566757595</v>
@@ -7426,7 +7426,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>8.192730671484634</v>
+        <v>8.192730671484636</v>
       </c>
       <c r="C416">
         <v>8.020815015857384</v>
@@ -7446,13 +7446,13 @@
         <v>61.01041194340881</v>
       </c>
       <c r="C417">
-        <v>58.33738736334328</v>
+        <v>58.33738736334327</v>
       </c>
       <c r="D417">
         <v>74.13166866104207</v>
       </c>
       <c r="E417">
-        <v>71.91256981033405</v>
+        <v>71.91256981033403</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7463,13 +7463,13 @@
         <v>0.586638576378931</v>
       </c>
       <c r="C418">
-        <v>0.5255620483184079</v>
+        <v>0.5255620483184078</v>
       </c>
       <c r="D418">
         <v>0.6928193332807671</v>
       </c>
       <c r="E418">
-        <v>0.7732534388207962</v>
+        <v>0.7732534388207961</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7483,10 +7483,10 @@
         <v>43.86597971582708</v>
       </c>
       <c r="D419">
-        <v>47.62556482448439</v>
+        <v>47.62556482448438</v>
       </c>
       <c r="E419">
-        <v>46.67044980000897</v>
+        <v>46.67044980000895</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7554,7 +7554,7 @@
         <v>80.65619849307838</v>
       </c>
       <c r="E423">
-        <v>61.69991668475762</v>
+        <v>61.69991668475761</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7571,7 +7571,7 @@
         <v>96.0192839203314</v>
       </c>
       <c r="E424">
-        <v>63.28196583052063</v>
+        <v>63.28196583052062</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7605,7 +7605,7 @@
         <v>18.43570251270363</v>
       </c>
       <c r="E426">
-        <v>20.56663889491921</v>
+        <v>20.5666388949192</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7633,10 +7633,10 @@
         <v>66.55777942853911</v>
       </c>
       <c r="C428">
-        <v>72.96292957181355</v>
+        <v>72.96292957181356</v>
       </c>
       <c r="D428">
-        <v>84.27618507534265</v>
+        <v>84.27618507534264</v>
       </c>
       <c r="E428">
         <v>81.84252105987981</v>
@@ -7656,7 +7656,7 @@
         <v>23.81278241224219</v>
       </c>
       <c r="E429">
-        <v>59.3268429661131</v>
+        <v>59.32684296611308</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7670,7 +7670,7 @@
         <v>35.64110851910951</v>
       </c>
       <c r="D430">
-        <v>37.63955929676992</v>
+        <v>37.63955929676991</v>
       </c>
       <c r="E430">
         <v>30.84995834237881</v>
@@ -7681,13 +7681,13 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>93.0994542890966</v>
+        <v>93.09945428909663</v>
       </c>
       <c r="C431">
         <v>92.78290296094373</v>
       </c>
       <c r="D431">
-        <v>96.9651226784197</v>
+        <v>96.96512267841969</v>
       </c>
       <c r="E431">
         <v>80.33329571650471</v>
@@ -7707,7 +7707,7 @@
         <v>114.454986433035</v>
       </c>
       <c r="E432">
-        <v>94.13192417289943</v>
+        <v>94.13192417289942</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7724,7 +7724,7 @@
         <v>27.65355376905545</v>
       </c>
       <c r="E433">
-        <v>43.50635150848294</v>
+        <v>43.50635150848293</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7758,7 +7758,7 @@
         <v>18.43570251270363</v>
       </c>
       <c r="E435">
-        <v>16.61151603051167</v>
+        <v>16.61151603051166</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7800,7 +7800,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>27.23380047995516</v>
+        <v>27.23380047995517</v>
       </c>
       <c r="C438">
         <v>36.20421291129988</v>
@@ -7834,10 +7834,10 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>27.69539031859846</v>
+        <v>27.69539031859847</v>
       </c>
       <c r="C440">
-        <v>32.13123895877865</v>
+        <v>32.13123895877864</v>
       </c>
       <c r="D440">
         <v>31.80646836765817</v>
@@ -7922,7 +7922,7 @@
         <v>0.4615898386433078</v>
       </c>
       <c r="C445">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
       <c r="D445">
         <v>0.5390926841975962</v>
@@ -7939,7 +7939,7 @@
         <v>7.847027256936235</v>
       </c>
       <c r="C446">
-        <v>6.788289920868728</v>
+        <v>6.788289920868727</v>
       </c>
       <c r="D446">
         <v>7.547297578766346</v>
@@ -7956,7 +7956,7 @@
         <v>0.4615898386433078</v>
       </c>
       <c r="C447">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
       <c r="D447">
         <v>0.5390926841975962</v>
@@ -7973,13 +7973,13 @@
         <v>6.580079660239965</v>
       </c>
       <c r="C448">
-        <v>6.706106569519753</v>
+        <v>6.706106569519754</v>
       </c>
       <c r="D448">
-        <v>7.21555558723649</v>
+        <v>7.215555587236488</v>
       </c>
       <c r="E448">
-        <v>9.588117574787065</v>
+        <v>9.588117574787063</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7993,7 +7993,7 @@
         <v>51.97232591377809</v>
       </c>
       <c r="D449">
-        <v>52.31277800746455</v>
+        <v>52.31277800746454</v>
       </c>
       <c r="E449">
         <v>41.83905850816173</v>
@@ -8021,13 +8021,13 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>40.30298791896978</v>
+        <v>40.30298791896979</v>
       </c>
       <c r="C451">
         <v>42.75142938068844</v>
       </c>
       <c r="D451">
-        <v>53.21472245586912</v>
+        <v>53.21472245586911</v>
       </c>
       <c r="E451">
         <v>67.11682302350944</v>
@@ -8044,10 +8044,10 @@
         <v>38.56011277473858</v>
       </c>
       <c r="D452">
-        <v>45.99916686863262</v>
+        <v>45.99916686863261</v>
       </c>
       <c r="E452">
-        <v>60.1436466054825</v>
+        <v>60.14364660548249</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8061,10 +8061,10 @@
         <v>31.85400620521883</v>
       </c>
       <c r="D453">
-        <v>45.99916686863263</v>
+        <v>45.99916686863261</v>
       </c>
       <c r="E453">
-        <v>87.16470522533695</v>
+        <v>87.16470522533693</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,7 +8072,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>37.03267407202888</v>
+        <v>37.03267407202889</v>
       </c>
       <c r="C454">
         <v>35.68142254988368</v>
@@ -8081,7 +8081,7 @@
         <v>39.54792352806702</v>
       </c>
       <c r="E454">
-        <v>41.95785881961409</v>
+        <v>41.95785881961408</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8095,10 +8095,10 @@
         <v>16.02023053260083</v>
       </c>
       <c r="D455">
-        <v>20.19468435475763</v>
+        <v>20.19468435475762</v>
       </c>
       <c r="E455">
-        <v>26.85302964455301</v>
+        <v>26.853029644553</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8106,7 +8106,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>21.25949807838695</v>
+        <v>21.25949807838696</v>
       </c>
       <c r="C456">
         <v>21.84576890809205</v>
@@ -8123,16 +8123,16 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>5.486322084745019</v>
+        <v>5.486322084745021</v>
       </c>
       <c r="C457">
-        <v>5.825538375491212</v>
+        <v>5.82553837549121</v>
       </c>
       <c r="D457">
-        <v>7.57300663303411</v>
+        <v>7.573006633034109</v>
       </c>
       <c r="E457">
-        <v>6.713257411138253</v>
+        <v>6.713257411138251</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8140,13 +8140,13 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>26.74582016313197</v>
+        <v>26.74582016313198</v>
       </c>
       <c r="C458">
-        <v>37.86599944069289</v>
+        <v>37.86599944069288</v>
       </c>
       <c r="D458">
-        <v>42.07225907241173</v>
+        <v>42.07225907241172</v>
       </c>
       <c r="E458">
         <v>30.20965835012214</v>
@@ -8160,7 +8160,7 @@
         <v>11.65843443008317</v>
       </c>
       <c r="C459">
-        <v>13.10746134485523</v>
+        <v>13.10746134485522</v>
       </c>
       <c r="D459">
         <v>15.98745844751645</v>
@@ -8177,10 +8177,10 @@
         <v>27.4316104237251</v>
       </c>
       <c r="C460">
-        <v>34.95323025294728</v>
+        <v>34.95323025294727</v>
       </c>
       <c r="D460">
-        <v>34.49925243937761</v>
+        <v>34.4992524393776</v>
       </c>
       <c r="E460">
         <v>20.97892940980704</v>
@@ -8197,7 +8197,7 @@
         <v>33.49684565907447</v>
       </c>
       <c r="D461">
-        <v>39.54792352806702</v>
+        <v>39.54792352806701</v>
       </c>
       <c r="E461">
         <v>36.92291576126039</v>
@@ -8208,16 +8208,16 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>5.486322084745019</v>
+        <v>5.486322084745021</v>
       </c>
       <c r="C462">
-        <v>5.825538375491213</v>
+        <v>5.825538375491212</v>
       </c>
       <c r="D462">
         <v>6.731561451585875</v>
       </c>
       <c r="E462">
-        <v>6.713257411138254</v>
+        <v>6.713257411138253</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8231,10 +8231,10 @@
         <v>46.7529451625213</v>
       </c>
       <c r="D463">
-        <v>50.08867603534517</v>
+        <v>50.08867603534516</v>
       </c>
       <c r="E463">
-        <v>44.93314881718893</v>
+        <v>44.93314881718891</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8248,7 +8248,7 @@
         <v>42.50267742047392</v>
       </c>
       <c r="D464">
-        <v>48.4985593358104</v>
+        <v>48.49855933581038</v>
       </c>
       <c r="E464">
         <v>42.52601584483951</v>
@@ -8299,7 +8299,7 @@
         <v>19.12620483921327</v>
       </c>
       <c r="D467">
-        <v>22.26163379348674</v>
+        <v>22.26163379348673</v>
       </c>
       <c r="E467">
         <v>18.45468612134545</v>
@@ -8310,7 +8310,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>26.32031864095986</v>
+        <v>26.32031864095987</v>
       </c>
       <c r="C468">
         <v>17.60352974498936</v>
@@ -8347,7 +8347,7 @@
         <v>32.90039830119983</v>
       </c>
       <c r="C470">
-        <v>25.98616295688904</v>
+        <v>25.98616295688905</v>
       </c>
       <c r="D470">
         <v>29.76416679735052</v>
@@ -8367,7 +8367,7 @@
         <v>7.083779570078987</v>
       </c>
       <c r="D471">
-        <v>8.745641847441219</v>
+        <v>8.745641847441217</v>
       </c>
       <c r="E471">
         <v>10.43090954684743</v>
@@ -8378,13 +8378,13 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>7.543692866524402</v>
+        <v>7.543692866524404</v>
       </c>
       <c r="C472">
         <v>7.281922969364016</v>
       </c>
       <c r="D472">
-        <v>9.255896995930579</v>
+        <v>9.255896995930577</v>
       </c>
       <c r="E472">
         <v>10.90904329309966</v>
@@ -8415,7 +8415,7 @@
         <v>27.59982783532563</v>
       </c>
       <c r="C474">
-        <v>28.92345981132703</v>
+        <v>28.92345981132704</v>
       </c>
       <c r="D474">
         <v>35.26686885145229</v>
@@ -8452,7 +8452,7 @@
         <v>35.52431498247901</v>
       </c>
       <c r="D476">
-        <v>46.47212091070691</v>
+        <v>46.47212091070689</v>
       </c>
       <c r="E476">
         <v>48.57338376584536</v>
@@ -8463,7 +8463,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>6.911977521140212</v>
+        <v>6.91197752114021</v>
       </c>
       <c r="C477">
         <v>10.2193234881104</v>
@@ -8548,10 +8548,10 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>94.6141263373064</v>
+        <v>94.61412633730639</v>
       </c>
       <c r="C482">
-        <v>84.95949353356025</v>
+        <v>84.95949353356026</v>
       </c>
       <c r="D482">
         <v>89.35120399644977</v>
@@ -8605,10 +8605,10 @@
         <v>24.09664505334564</v>
       </c>
       <c r="D485">
-        <v>30.96160728697408</v>
+        <v>30.96160728697407</v>
       </c>
       <c r="E485">
-        <v>54.6353874818243</v>
+        <v>54.63538748182429</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8616,13 +8616,13 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>81.90340163123214</v>
+        <v>81.90340163123213</v>
       </c>
       <c r="C486">
-        <v>79.79060146549739</v>
+        <v>79.79060146549742</v>
       </c>
       <c r="D486">
-        <v>84.53161638270528</v>
+        <v>84.53161638270527</v>
       </c>
       <c r="E486">
         <v>76.15824645134229</v>
@@ -8633,7 +8633,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>67.60829164606699</v>
+        <v>67.60829164606697</v>
       </c>
       <c r="C487">
         <v>53.20434283201758</v>
@@ -8653,7 +8653,7 @@
         <v>89.46649041625783</v>
       </c>
       <c r="C488">
-        <v>84.67830444872097</v>
+        <v>84.67830444872098</v>
       </c>
       <c r="D488">
         <v>97.94138410113294</v>
@@ -8673,10 +8673,10 @@
         <v>8.981032290015861</v>
       </c>
       <c r="D489">
-        <v>9.456409499419735</v>
+        <v>9.456409499419733</v>
       </c>
       <c r="E489">
-        <v>12.66331754460471</v>
+        <v>12.6633175446047</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8690,7 +8690,7 @@
         <v>94.60702123214922</v>
       </c>
       <c r="D490">
-        <v>88.41710238388043</v>
+        <v>88.41710238388039</v>
       </c>
       <c r="E490">
         <v>59.22685703553555</v>
@@ -8718,13 +8718,13 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>232.0960133399048</v>
+        <v>232.0960133399047</v>
       </c>
       <c r="C492">
         <v>258.7041554047266</v>
       </c>
       <c r="D492">
-        <v>251.2446374670662</v>
+        <v>251.2446374670661</v>
       </c>
       <c r="E492">
         <v>182.0354870651019</v>
@@ -8741,7 +8741,7 @@
         <v>84.5602579154608</v>
       </c>
       <c r="D493">
-        <v>99.7975215025977</v>
+        <v>99.79752150259768</v>
       </c>
       <c r="E493">
         <v>129.7764955631588</v>
@@ -8769,16 +8769,16 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>0.8763441398146101</v>
+        <v>0.87634413981461</v>
       </c>
       <c r="C495">
-        <v>0.8700713587968725</v>
+        <v>0.8700713587968728</v>
       </c>
       <c r="D495">
-        <v>0.9323073533914322</v>
+        <v>0.9323073533914319</v>
       </c>
       <c r="E495">
-        <v>0.9019652086473825</v>
+        <v>0.9019652086473824</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8786,16 +8786,16 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>0.9408444102371724</v>
+        <v>0.9408444102371722</v>
       </c>
       <c r="C496">
         <v>0.9345028760912059</v>
       </c>
       <c r="D496">
-        <v>0.9704137352978084</v>
+        <v>0.9704137352978085</v>
       </c>
       <c r="E496">
-        <v>0.9232450511954365</v>
+        <v>0.9232450511954364</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8803,16 +8803,16 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>55.20968080832043</v>
+        <v>55.20968080832042</v>
       </c>
       <c r="C497">
-        <v>51.33421016901548</v>
+        <v>51.3342101690155</v>
       </c>
       <c r="D497">
-        <v>54.07382649670307</v>
+        <v>54.07382649670305</v>
       </c>
       <c r="E497">
-        <v>54.11791251884295</v>
+        <v>54.11791251884294</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8846,7 +8846,7 @@
         <v>37.69092543140199</v>
       </c>
       <c r="E499">
-        <v>43.91382241640538</v>
+        <v>43.91382241640537</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8880,7 +8880,7 @@
         <v>104.8686212285354</v>
       </c>
       <c r="E501">
-        <v>115.3974221441698</v>
+        <v>115.3974221441697</v>
       </c>
     </row>
   </sheetData>
